--- a/data/audit/Requirement.xlsx
+++ b/data/audit/Requirement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2052 +448,1920 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Mathematics</t>
+          <t>BS in Biological Sciences---Biological Sciences---Modern Biology</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---Principles of Computing</t>
+          <t>BS in Biological Sciences---Biological Sciences---Colloquia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---Fundamentals of Programming and Computer Science</t>
+          <t>BS in Biological Sciences---Biological Sciences---Genetics</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
+          <t>BS in Biological Sciences---Biological Sciences---Biochemistry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---First Year Colloquium</t>
+          <t>BS in Biological Sciences---Biological Sciences---Introduction to Computational Biology</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Milieux</t>
+          <t>BS in Biological Sciences---Biological Sciences---Cell Biology</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Database Design and Development</t>
+          <t>BS in Biological Sciences---Biological Sciences---Experimental Techniques in Molecular Biology</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Application Design and Development</t>
+          <t>BS in Biological Sciences---Biological Sciences---Experimental Biochemistry</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>BS in Biological Sciences---Biological Sciences---Topics in Research</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Foundations of Software Engineering</t>
+          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Advanced Biological Sciences Electives</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Consulting Project</t>
+          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Biological Sciences Electives---Departmental Electives Group</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
+          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Biological Sciences Electives---Undergraduate Research</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Biological Sciences Electives---Interdisciplinary Electives Group</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>BS in Biological Sciences---Chemistry---Modern Chemistry I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>BS in Biological Sciences---Chemistry---Modern Chemistry II</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
+          <t>BS in Biological Sciences---Chemistry---Organic Chemistry I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Biological Sciences---Chemistry---Organic Chemistry II</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Summative Course</t>
+          <t>BS in Biological Sciences---Chemistry---General Chemistry Lab</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Enabling Methods, Techniques and Tools</t>
+          <t>BS in Biological Sciences---Chemistry---Organic Chemistry Lab</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
+          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Programming</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Summative Course</t>
+          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Calculus I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Calculus II</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Regulatory and Behavioral Core</t>
+          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Physics I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Core@CMU</t>
+          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Physics II</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Communication</t>
+          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Core@CMU</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Communication---Mini Courses</t>
+          <t>BS in Biological Sciences---Options---Biochemistry---Required Biology Electives---Advanced Biochemistry</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Data Analysis</t>
+          <t>BS in Biological Sciences---Options---Biochemistry---Required Biology Electives---Advanced Calculus</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
+          <t>BS in Biological Sciences---Options---Biochemistry---Any ONE of the following courses</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
+          <t>BS in Biological Sciences---Options---Biochemistry---Recommended Biology Electives</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+          <t>BS in Biological Sciences---Options---Biophysics---Required Biology Electives</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+          <t>BS in Biological Sciences---Options---Biophysics---Recommended Biology Electives</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+          <t>BS in Biological Sciences---Options---Cell Biology---Required Biology Electives</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+          <t>BS in Biological Sciences---Options---Cell Biology---Any ONE of the following courses</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+          <t>BS in Biological Sciences---Options---Computational Biology---Required Biology Electives</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+          <t>BS in Biological Sciences---Options---Computational Biology---Any ONE of the following courses</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>BS in Biological Sciences---Options---Computational Biology---Recommended Biology Electives</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>BS in Biological Sciences---Options---Genetics---Required Biology Electives---Genetics</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>BS in Biological Sciences---Options---Genetics---Required Biology Electives</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science</t>
+          <t>BS in Biological Sciences---Options---Genetics---Recommended Biology Electives</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Artificial Intelligence Elective</t>
+          <t>BS in Biological Sciences---Options---Developmental Biology---Required Biology Electives</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Domains Elective</t>
+          <t>BS in Biological Sciences---Options---Developmental Biology---Recommended Biology Electives</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Logics &amp; Languages Elective</t>
+          <t>BS in Biological Sciences---Options---Molecular Biology---Required Biology Elective</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Software Systems Elective</t>
+          <t>BS in Biological Sciences---Options---Molecular Biology---Recommended Biology Elective</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus</t>
+          <t>BS in Biological Sciences---Options---Neuroscience---Required Biology Electives---Cellular Neuroscience</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus---3d Calculus</t>
+          <t>BS in Biological Sciences---Options---Neuroscience---Required Biology Electives---Systems Neuroscience</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Mathematical Foundations for CS</t>
+          <t>BS in Biological Sciences---Options---Neuroscience---Any ONE of the following courses</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Matrix/Linear Algebra</t>
+          <t>GenEd---First-Year Seminar</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability</t>
+          <t>GenEd---C @ CM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics---Two-course 36-22x sequence</t>
+          <t>GenEd---Third-Year Seminar</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics---Two-course 36-23x sequence</t>
+          <t>GenEd---Third-Year Seminar---Approved Coursework</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Technical Communication</t>
+          <t>GenEd---ENGAGE Courses</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BS in Computer Science---2 SCS Electives</t>
+          <t>GenEd---Life Sciences</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BS in Computer Science---First-year Immigration Course</t>
+          <t>GenEd---Life Sciences---Introduction to Computational Biology</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computing @ Carnegie Mellon</t>
+          <t>GenEd---Life Sciences---Modern Biology</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GenEd---First Year Writing</t>
+          <t>GenEd---Life Sciences---Biochemistry I</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GenEd---First Year Writing---2 Writing Minis</t>
+          <t>GenEd---Physical Sciences</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GenEd---Category 1---Category 1: Cognition, Choice, and Behavior (CS, CB, &amp; HCI)</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GenEd---Category 1---Category 1A: Cognitive Studies (AI)</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science---Concepts</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GenEd---Category 2: Economic, Political, and Social Institutions</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science---Matrix Algebra</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GenEd---Category 3: Cultural Analysis</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science---Differential Equations</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GenEd---Humanities/Arts Electives</t>
+          <t>GenEd---STEM Course</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Science/Engineering, Any Department (4 courses)</t>
+          <t>GenEd---Non-Technical Breadth Electives</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Science/Engineering, Same Department (2 courses)---Option 2</t>
+          <t>BS in Information Systems---Technical Core---Mathematics</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Lab Requirement</t>
+          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Physics</t>
+          <t>BS in Information Systems---Information Systems Core---First Year Colloquium</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Chemistry</t>
+          <t>BS in Information Systems---Information Systems Core---Information Systems Milieux</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Modern Biology</t>
+          <t>BS in Information Systems---Information Systems Core---Database Design and Development</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Molecular Biology</t>
+          <t>BS in Information Systems---Information Systems Core---Application Design and Development</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Modern Biology</t>
+          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Molecular Biology</t>
+          <t>BS in Information Systems---Information Systems Core---Foundations of Software Engineering</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Lab Requirement</t>
+          <t>BS in Information Systems---Information Systems Core---Information Systems Consulting Project</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Mathematics---Calculus</t>
+          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Mathematics---Multivariate Analysis</t>
+          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Mathematics---Models of Optimization</t>
+          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Economics---Microeconomics</t>
+          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Economics</t>
+          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Economics---Intermed. Micro or Macro</t>
+          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Statistics---Prob/Stats for Business</t>
+          <t>BS in Information Systems---Concentration---Data Science---Summative Course</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Statistics---Regression Analysis</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Enabling Methods, Techniques and Tools</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Core</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BS in Business Administration---BLE</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Summative Course</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Management Game/ Consulting Project</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Required Courses</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Regulatory and Behavioral Core</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Area Electives</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Summative Course</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Required Courses</t>
+          <t>GenEd---GenEd---Core@CMU</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>GenEd---GenEd---Foundations---Communication</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Required Courses</t>
+          <t>GenEd---GenEd---Foundations---Communication---Mini Courses</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Area Electives</t>
+          <t>GenEd---GenEd---Foundations---Data Analysis</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives---Independent Study - Special Permission Required</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Required Courses</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Required Courses</t>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Required Courses</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Required Courses</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Required Courses</t>
+          <t>BS in Computer Science---Computer Science</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Computer Science---Computer Science---Introduction to Computer Systems</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Electives---Business Electives</t>
+          <t>BS in Computer Science---Computer Science---Artificial Intelligence Elective</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Core@CMU</t>
+          <t>BS in Computer Science---Computer Science---Domains Elective</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EY2022 Qatar Business Administration - University Core Requirements---CMU First Year Writing---Semester Long Writing Course</t>
+          <t>BS in Computer Science---Computer Science---Logics &amp; Languages Elective</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ba_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EY2022 Qatar Business Administration - University Core Requirements---CMU First Year Writing</t>
+          <t>BS in Computer Science---Computer Science---Software Systems Elective</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ba_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EY2022 Qatar Business Administration - University Core Requirements---Global, Cultural, and Diverse Perspectives</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ba_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Modern Biology</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus---3D Calculus</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Colloquia</t>
+          <t>BS in Computer Science---Mathematics and Probability---Mathematical Foundations for CS</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Genetics</t>
+          <t>BS in Computer Science---Mathematics and Probability---Matrix/Linear Algebra</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Biochemistry</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Introduction to Computational Biology</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-22x sequence</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Cell Biology</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-23x sequence</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Experimental Techniques in Molecular Biology</t>
+          <t>BS in Computer Science---Technical Communication</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Experimental Biochemistry</t>
+          <t>BS in Computer Science---SCS Electives</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Topics in Research</t>
+          <t>BS in Computer Science---First-year Immigration Course</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Advanced Biological Sciences Electives</t>
+          <t>BS in Computer Science---Computing @ Carnegie Mellon</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Biological Sciences Electives---Departmental Electives Group</t>
+          <t>GenEd---First Year Writing</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Biological Sciences Electives---Undergraduate Research</t>
+          <t>GenEd---Humanities/Arts Electives</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Biological Sciences---Biological Sciences Electives---Biological Sciences Electives---Interdisciplinary Electives Group</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Any Department</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Chemistry---Modern Chemistry I</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Same Department---Option 2---Paired with Biology</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Chemistry---Modern Chemistry II</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Lab Requirement</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Chemistry---Organic Chemistry I</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Physics</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Chemistry---Organic Chemistry II</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Chemistry</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Chemistry---General Chemistry Lab</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Modern Biology</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Chemistry---Organic Chemistry Lab</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Molecular Biology</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Programming</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Modern Biology</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Calculus I</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Molecular Biology</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Calculus II</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Lab Requirement</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Physics I</t>
+          <t>BS in Business Administration---Business Foundations---Mathematics---Calculus</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Physics II</t>
+          <t>BS in Business Administration---Business Foundations---Mathematics---Multivariate Analysis</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Mathematics, Physics and Computer Science---Core@CMU</t>
+          <t>BS in Business Administration---Business Foundations---Mathematics---Models of Optimization</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Biochemistry---Required Biology Electives---Advanced Biochemistry</t>
+          <t>BS in Business Administration---Business Foundations---Economics---Microeconomics</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Biochemistry---Required Biology Electives---Advanced Calculus</t>
+          <t>BS in Business Administration---Business Foundations---Economics</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Biochemistry---Any ONE of the following courses</t>
+          <t>BS in Business Administration---Business Foundations---Economics---Intermed. Micro or Macro</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Biochemistry---Recommended Biology Electives</t>
+          <t>BS in Business Administration---Business Foundations---Statistics---Prob/Stats for Business</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Biophysics---Required Biology Electives</t>
+          <t>BS in Business Administration---Business Foundations---Statistics---Regression Analysis</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Biophysics---Recommended Biology Electives</t>
+          <t>BS in Business Administration---Business Core</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Cell Biology---Required Biology Electives</t>
+          <t>BS in Business Administration---BLE</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Cell Biology---Any ONE of the following courses</t>
+          <t>BS in Business Administration---Management Game/ Consulting Project</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Computational Biology---Required Biology Electives</t>
+          <t>BS in Business Administration---Concentration---Accounting---Required Courses</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Computational Biology---Any ONE of the following courses</t>
+          <t>BS in Business Administration---Concentration---Accounting---Area Electives</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Computational Biology---Recommended Biology Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Required Courses</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Genetics---Required Biology Electives---Genetics</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Genetics---Required Biology Electives</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Required Courses</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Genetics---Recommended Biology Electives</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Area Electives</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Developmental Biology---Required Biology Electives</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives---Independent Study - Special Permission Required</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Developmental Biology---Recommended Biology Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Required Courses</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Molecular Biology---Required Biology Elective</t>
+          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Molecular Biology---Recommended Biology Elective</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Required Courses</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Neuroscience---Required Biology Electives---Cellular Neuroscience</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Neuroscience---Required Biology Electives---Systems Neuroscience</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BS in Biological Sciences---Options---Neuroscience---Any ONE of the following courses</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Required Courses</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>bs_0</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GenEd---First-Year Seminar</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>bs_1</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>GenEd---Interpretation and Argument</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Required Courses</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>bs_1</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>GenEd---C @ CM</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>bs_1</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GenEd---Third-Year Seminar</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Required Courses</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>bs_1</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GenEd---Third-Year Seminar---Approved Coursework</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>bs_1</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>GenEd---ENGAGE Courses</t>
+          <t>BS in Business Administration---Core@CMU</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>bs_1</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>GenEd---Cultural/Global Understanding---Country Today Course</t>
+          <t>EY2022 Qatar Business Administration - University Core Requirements---CMU First Year Writing---Semester Long Writing Course</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>bs_1</t>
+          <t>ba_1</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>GenEd---Cultural/Global Understanding---Approved Coursework</t>
+          <t>EY2022 Qatar Business Administration - University Core Requirements---CMU First Year Writing</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>GenEd---Life Sciences</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>GenEd---Life Sciences---Introduction to Computational Biology</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>GenEd---Life Sciences---Modern Biology</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>GenEd---Life Sciences---Biochemistry I</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>GenEd---Physical Sciences</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science---Concepts</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science---Matrix Algebra</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science---Differential Equations</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>GenEd---STEM Course</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>bs_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>GenEd---Non-Technical Breadth Electives</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>bs_1</t>
+          <t>ba_1</t>
         </is>
       </c>
     </row>

--- a/data/audit/Requirement.xlsx
+++ b/data/audit/Requirement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GenEd---C @ CM</t>
+          <t>GenEd---Interpretation and Argument</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GenEd---Third-Year Seminar</t>
+          <t>GenEd---C @ CM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GenEd---Third-Year Seminar---Approved Coursework</t>
+          <t>GenEd---Third-Year Seminar</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GenEd---ENGAGE Courses</t>
+          <t>GenEd---Third-Year Seminar---Approved Coursework</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GenEd---Life Sciences</t>
+          <t>GenEd---ENGAGE Courses</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GenEd---Life Sciences---Introduction to Computational Biology</t>
+          <t>GenEd---Cultural/Global Understanding---Modern Languages Course</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GenEd---Life Sciences---Modern Biology</t>
+          <t>GenEd---Cultural/Global Understanding</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GenEd---Life Sciences---Biochemistry I</t>
+          <t>GenEd---Cultural/Global Understanding---Approved Coursework</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GenEd---Physical Sciences</t>
+          <t>GenEd---Life Sciences</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science</t>
+          <t>GenEd---Life Sciences---Introduction to Computational Biology</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science---Concepts</t>
+          <t>GenEd---Life Sciences---Modern Biology</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science---Matrix Algebra</t>
+          <t>GenEd---Life Sciences---Biochemistry I</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GenEd---Mathematics, Statistics, and Computer Science---Differential Equations</t>
+          <t>GenEd---Physical Sciences</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GenEd---STEM Course</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GenEd---Non-Technical Breadth Electives</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science---Concepts</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,55 +1192,55 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Mathematics</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science---Matrix Algebra</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
+          <t>GenEd---Mathematics, Statistics, and Computer Science---Differential Equations</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---First Year Colloquium</t>
+          <t>GenEd---STEM Course</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Milieux</t>
+          <t>GenEd---Non-Technical Breadth Electives</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>is_0</t>
+          <t>bio_1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Database Design and Development</t>
+          <t>BS in Information Systems---Technical Core---Mathematics</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Application Design and Development</t>
+          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>BS in Information Systems---Information Systems Core---First Year Colloquium</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Foundations of Software Engineering</t>
+          <t>BS in Information Systems---Information Systems Core---Information Systems Milieux</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Consulting Project</t>
+          <t>BS in Information Systems---Information Systems Core---Database Design and Development</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
+          <t>BS in Information Systems---Information Systems Core---Application Design and Development</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>BS in Information Systems---Information Systems Core---Foundations of Software Engineering</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>BS in Information Systems---Information Systems Core---Information Systems Consulting Project</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
+          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Summative Course</t>
+          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Enabling Methods, Techniques and Tools</t>
+          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Summative Course</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Summative Course</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Regulatory and Behavioral Core</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Summative Course</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,55 +1456,55 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Core@CMU</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Summative Course</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Communication</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Communication---Mini Courses</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Regulatory and Behavioral Core</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Data Analysis</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Summative Course</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>is_1</t>
+          <t>is_0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
+          <t>GenEd---GenEd---Core@CMU</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
+          <t>GenEd---GenEd---Foundations---Communication</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+          <t>GenEd---GenEd---Foundations---Communication---Mini Courses</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+          <t>GenEd---GenEd---Foundations---Data Analysis</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry---D4-001</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities---D5-001</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,151 +1636,151 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities---D5-002</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Introduction to Computer Systems</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Artificial Intelligence Elective</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences---D6-001</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Domains Elective</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Logics &amp; Languages Elective</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts---D7-001</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computer Science---Software Systems Elective</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning---D8-001</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Calculus---3D Calculus</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Mathematical Foundations for CS</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)---D9-001</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Matrix/Linear Algebra</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability</t>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-22x sequence</t>
+          <t>GenEd---GenEd</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cs_0</t>
+          <t>is_1</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-23x sequence</t>
+          <t>BS in Computer Science---Computer Science</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Technical Communication</t>
+          <t>BS in Computer Science---Computer Science---Introduction to Computer Systems</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BS in Computer Science---SCS Electives</t>
+          <t>BS in Computer Science---Computer Science---Artificial Intelligence Elective</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BS in Computer Science---First-year Immigration Course</t>
+          <t>BS in Computer Science---Computer Science---Domains Elective</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BS in Computer Science---Computing @ Carnegie Mellon</t>
+          <t>BS in Computer Science---Computer Science---Logics &amp; Languages Elective</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,391 +1840,391 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GenEd---First Year Writing</t>
+          <t>BS in Computer Science---Computer Science---Software Systems Elective</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GenEd---Humanities/Arts Electives</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Any Department</t>
+          <t>BS in Computer Science---Mathematics and Probability---Calculus---3D Calculus</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Same Department---Option 2---Paired with Biology</t>
+          <t>BS in Computer Science---Mathematics and Probability---Mathematical Foundations for CS</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Lab Requirement</t>
+          <t>BS in Computer Science---Mathematics and Probability---Matrix/Linear Algebra</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Physics</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Chemistry</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-22x sequence</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Modern Biology</t>
+          <t>BS in Computer Science---Mathematics and Probability---Probability---Probability and Statistics 36-23x sequence</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Molecular Biology</t>
+          <t>BS in Computer Science---Technical Communication</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Modern Biology</t>
+          <t>BS in Computer Science---SCS Electives</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Molecular Biology</t>
+          <t>BS in Computer Science---First-year Immigration Course</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Lab Requirement</t>
+          <t>BS in Computer Science---Computing @ Carnegie Mellon</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>cs_1</t>
+          <t>cs_0</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Mathematics---Calculus</t>
+          <t>GenEd---First Year Writing</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Mathematics---Multivariate Analysis</t>
+          <t>GenEd---First Year Writing---2 Writing Minis</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Mathematics---Models of Optimization</t>
+          <t>GenEd---Category 1: Cognition---Cognition, Choice, and Behavior (CS, CB, &amp; HCI)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Economics---Microeconomics</t>
+          <t>GenEd---Category 1: Cognition---Cognitive Studies (AI)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Economics</t>
+          <t>GenEd---Category 2: Economic, Political, and Social Institutions</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Economics---Intermed. Micro or Macro</t>
+          <t>GenEd---Category 3: Cultural Analysis</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Statistics---Prob/Stats for Business</t>
+          <t>GenEd---Humanities/Arts Electives</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Foundations---Statistics---Regression Analysis</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Any Department</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Business Core</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Same Department---Option 1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BS in Business Administration---BLE</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Same Department---Option 2---Biology Course</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Management Game/ Consulting Project</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Same Department---Option 2---Paired with Biology</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Required Courses</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Same Department---Option 2---Paired with Biology---Bioengineering Course</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Area Electives</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CS, AI, &amp; HCI)---Lab Requirement</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Required Courses</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Physics</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Chemistry</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Required Courses</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Modern Biology</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Area Electives</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Any Department (4 courses)---Molecular Biology</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives---Independent Study - Special Permission Required</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Modern Biology</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Required Courses</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Science/Engineering, Same Department (2 courses)---Molecular Biology</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>GenEd---Science and Engineering---Science and Engineering (CB)---Lab Requirement</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ba_0</t>
+          <t>cs_1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Required Courses</t>
+          <t>BS in Business Administration---Business Foundations---Mathematics---Calculus</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
+          <t>BS in Business Administration---Business Foundations---Mathematics---Multivariate Analysis</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Business Foundations---Mathematics---Models of Optimization</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Required Courses</t>
+          <t>BS in Business Administration---Business Foundations---Economics---Microeconomics</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>BS in Business Administration---Business Foundations---Economics</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Required Courses</t>
+          <t>BS in Business Administration---Business Foundations---Economics---Intermed. Micro or Macro</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Business Foundations---Statistics---Prob/Stats for Business</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Required Courses</t>
+          <t>BS in Business Administration---Business Foundations---Statistics---Regression Analysis</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Business Core</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Core@CMU</t>
+          <t>BS in Business Administration---BLE</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,22 +2344,286 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EY2022 Qatar Business Administration - University Core Requirements---CMU First Year Writing---Semester Long Writing Course</t>
+          <t>BS in Business Administration---Management Game/ Consulting Project</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ba_1</t>
+          <t>ba_0</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>BS in Business Administration---Concentration---Accounting---Accounting Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Accounting---Accounting Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Entrepreneurship---Entrepreneurship Concentration---Two Area Electives---Independent Study - Special Permission Required</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Required Courses</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Business Electives---Business Electives</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Core@CMU</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ba_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>EY2022 Qatar Business Administration - University Core Requirements---CMU First Year Writing---Semester Long Writing Course</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ba_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
           <t>EY2022 Qatar Business Administration - University Core Requirements---CMU First Year Writing</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ba_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>EY2022 Qatar Business Administration - University Core Requirements</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
         <is>
           <t>ba_1</t>
         </is>
